--- a/INFO_636/Assignment_7B/Supporting Docs/7BVannoniEstimations.xlsx
+++ b/INFO_636/Assignment_7B/Supporting Docs/7BVannoniEstimations.xlsx
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,6 +1012,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1553,7 +1554,9 @@
         <v>5</v>
       </c>
       <c r="H7" s="80"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="37">
+        <v>3</v>
+      </c>
       <c r="J7" s="36"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -1573,7 +1576,9 @@
         <v>15</v>
       </c>
       <c r="H8" s="80"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="37">
+        <v>29</v>
+      </c>
       <c r="J8" s="36"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
@@ -1666,7 +1671,9 @@
         <v>2</v>
       </c>
       <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
+      <c r="I12" s="45">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="25.5">
       <c r="A13" s="84" t="s">
@@ -1687,7 +1694,9 @@
         <v>2</v>
       </c>
       <c r="H13" s="43"/>
-      <c r="I13" s="46"/>
+      <c r="I13" s="46">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="38.25">
       <c r="A14" s="84" t="s">
@@ -1708,7 +1717,9 @@
         <v>16</v>
       </c>
       <c r="H14" s="43"/>
-      <c r="I14" s="46"/>
+      <c r="I14" s="46">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="25.5">
       <c r="A15" s="84" t="s">
@@ -1729,7 +1740,9 @@
         <v>16</v>
       </c>
       <c r="H15" s="43"/>
-      <c r="I15" s="46"/>
+      <c r="I15" s="46">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="25.5">
       <c r="A16" s="84" t="s">
@@ -1750,7 +1763,9 @@
         <v>2</v>
       </c>
       <c r="H16" s="43"/>
-      <c r="I16" s="46"/>
+      <c r="I16" s="46">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:47">
       <c r="A17" s="84"/>
@@ -1820,7 +1835,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="53"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <f>SUM(I12:I21)</f>
+        <v>79</v>
+      </c>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -1978,7 +1996,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="53"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <f>SUM(I24:I29)</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
@@ -2072,7 +2093,9 @@
         <v>16</v>
       </c>
       <c r="H33" s="53"/>
-      <c r="I33" s="45"/>
+      <c r="I33" s="45">
+        <v>15</v>
+      </c>
       <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:22">
@@ -2127,7 +2150,7 @@
       <c r="H37" s="53"/>
       <c r="I37" s="30">
         <f>SUM(I33:I36)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37" s="39"/>
       <c r="K37" s="39"/>
@@ -2306,12 +2329,12 @@
       <c r="F46" s="30"/>
       <c r="G46" s="57">
         <f>'Size Estimate Regression'!range</f>
-        <v>68.373898494607062</v>
+        <v>68.68288478237713</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="88">
         <f>'Time Estimate Regression'!range</f>
-        <v>151.18734619034009</v>
+        <v>151.53476154221724</v>
       </c>
       <c r="J46" s="52"/>
     </row>
@@ -2326,12 +2349,12 @@
       <c r="F47" s="30"/>
       <c r="G47" s="58">
         <f>'Size Estimate Regression'!upi</f>
-        <v>154.22998705549267</v>
+        <v>154.53897334326274</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="88">
         <f>'Time Estimate Regression'!upi</f>
-        <v>474.70410541935019</v>
+        <v>475.05152077122739</v>
       </c>
       <c r="J47" s="52"/>
     </row>
@@ -2346,12 +2369,12 @@
       <c r="F48" s="30"/>
       <c r="G48" s="58">
         <f>'Size Estimate Regression'!lpi</f>
-        <v>17.482190066278548</v>
+        <v>17.17320377850848</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="88">
         <f>'Time Estimate Regression'!lpi</f>
-        <v>172.32941303867003</v>
+        <v>171.98199768679288</v>
       </c>
       <c r="J48" s="52"/>
     </row>
@@ -2658,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5773,7 +5796,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5826,26 +5849,7 @@
     <row r="4" spans="1:8">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="0">B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E10" si="1">B4^2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" ref="F4:F10" si="2">(C4-C$20-(B$20*B4))^2</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G10" si="3">(B4-B$15)^2</f>
-        <v>2040.0277777777776</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="4">C4^2</f>
-        <v>0</v>
-      </c>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -5858,23 +5862,23 @@
         <v>92</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D10" si="0">B5*C5</f>
         <v>5520</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E10" si="1">B5^2</f>
         <v>3600</v>
       </c>
       <c r="F5" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F4:F10" si="2">(C5-C$20-(B$20*B5))^2</f>
         <v>26.993967947059552</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G4:G10" si="3">(B5-B$15)^2</f>
         <v>220.02777777777786</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H4:H10" si="4">C5^2</f>
         <v>8464</v>
       </c>
     </row>
@@ -6050,31 +6054,31 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <f>SUM(B4:B10)</f>
+        <f t="shared" ref="B14:H14" si="5">SUM(B4:B10)</f>
         <v>271</v>
       </c>
       <c r="C14">
-        <f>SUM(C4:C10)</f>
+        <f t="shared" si="5"/>
         <v>439</v>
       </c>
       <c r="D14">
-        <f>SUM(D4:D10)</f>
+        <f t="shared" si="5"/>
         <v>22840</v>
       </c>
       <c r="E14">
-        <f>SUM(E4:E10)</f>
+        <f t="shared" si="5"/>
         <v>14791</v>
       </c>
       <c r="F14" s="18">
-        <f>SUM(F4:F10)</f>
+        <f t="shared" si="5"/>
         <v>11198.73495731267</v>
       </c>
       <c r="G14" s="18">
-        <f>SUM(G4:G10)</f>
-        <v>4590.8611111111113</v>
+        <f t="shared" si="5"/>
+        <v>2550.8333333333335</v>
       </c>
       <c r="H14">
-        <f>SUM(H4:H10)</f>
+        <f t="shared" si="5"/>
         <v>46383</v>
       </c>
     </row>
@@ -6159,7 +6163,7 @@
       <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="90">
         <f>B23*B20+C20</f>
         <v>85.85608856088561</v>
       </c>
@@ -6201,7 +6205,7 @@
       </c>
       <c r="B28" s="12">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>68.373898494607062</v>
+        <v>68.68288478237713</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -6213,7 +6217,7 @@
       </c>
       <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>154.22998705549267</v>
+        <v>154.53897334326274</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
@@ -6225,7 +6229,7 @@
       </c>
       <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>17.482190066278548</v>
+        <v>17.17320377850848</v>
       </c>
       <c r="C30" t="s">
         <v>93</v>
@@ -6255,7 +6259,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6308,26 +6312,7 @@
     <row r="4" spans="1:8">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4">
-        <f t="shared" ref="D4:D13" si="0">B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E13" si="1">B4^2</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <f>(C4-C20-(B20*B4))^2</f>
-        <v>241.8741338573499</v>
-      </c>
-      <c r="G4">
-        <f>(B4-B15)^2</f>
-        <v>2040.0277777777776</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H13" si="2">C4^2</f>
-        <v>0</v>
-      </c>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -6340,11 +6325,11 @@
         <v>406</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D13" si="0">B5*C5</f>
         <v>24360</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E13" si="1">B5^2</f>
         <v>3600</v>
       </c>
       <c r="F5" s="22">
@@ -6356,7 +6341,7 @@
         <v>220.02777777777786</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H4:H13" si="2">C5^2</f>
         <v>164836</v>
       </c>
     </row>
@@ -6518,74 +6503,14 @@
     <row r="11" spans="1:8">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>IF(B11&gt;0, (C11-C20-(B20*B11))^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>IF(B11&gt;0, (B11-B15)^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>IF(B12&gt;0, (C12-C20-(B20*B12))^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>IF(B12&gt;0, (B12-B15)^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>IF(B13&gt;0, (C13-C20-(B20*B13))^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>IF(B13&gt;0, (B13-B15)^2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -6609,11 +6534,11 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="3"/>
-        <v>54754.418139084381</v>
+        <v>54512.544005227035</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="3"/>
-        <v>4590.8611111111113</v>
+        <v>2550.8333333333335</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="3"/>
@@ -6701,7 +6626,7 @@
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="105">
         <f>B23*B20+C20</f>
         <v>323.51675922901012</v>
       </c>
@@ -6715,7 +6640,7 @@
       </c>
       <c r="B25" s="69">
         <f>(1/(B16-2))*F14</f>
-        <v>13688.604534771095</v>
+        <v>13628.136001306759</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6724,7 +6649,7 @@
       </c>
       <c r="B26" s="69">
         <f>SQRT(B25)</f>
-        <v>116.9983099654482</v>
+        <v>116.73960768011327</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6743,7 +6668,7 @@
       </c>
       <c r="B28" s="69">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>151.18734619034009</v>
+        <v>151.53476154221724</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -6755,7 +6680,7 @@
       </c>
       <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>474.70410541935019</v>
+        <v>475.05152077122739</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
@@ -6767,7 +6692,7 @@
       </c>
       <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>172.32941303867003</v>
+        <v>171.98199768679288</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
